--- a/Simper_OTU/stevia.post_krusk_simper.xlsx
+++ b/Simper_OTU/stevia.post_krusk_simper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C5CCB48-937B-48CB-BFE7-E544DF21DABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A088F2AE-DDFB-4A21-A951-9B96CED86E58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
@@ -1064,12 +1064,12 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="91.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
